--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/42/word_level_predictions_42.xlsx
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,213 +11573,213 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12722,158 +12722,158 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
+      <c r="A237" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
+      <c r="A238" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" t="n">
+      <c r="D238" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
+      <c r="A239" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" t="n">
+      <c r="D239" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -13294,1250 +13294,1250 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>violation</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>laws</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>regulations</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E257" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>16</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D249" t="n">
-        <v>5</v>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>15</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D250" t="n">
-        <v>6</v>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>16</v>
+      </c>
+      <c r="B261" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>17</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>16</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>18</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>16</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>19</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>16</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>16</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>21</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>16</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>authorization</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>22</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>16</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>23</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>16</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>fly</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>24</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>16</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
-        <v>7</v>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
+      <c r="D269" t="n">
+        <v>25</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>violation</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>8</v>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>26</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>9</v>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>16</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="D254" t="n">
-        <v>10</v>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>16</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>laws</t>
-        </is>
-      </c>
-      <c r="D255" t="n">
-        <v>11</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>16</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>12</v>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>16</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>regulations</t>
-        </is>
-      </c>
-      <c r="D257" t="n">
-        <v>13</v>
-      </c>
-      <c r="E257" t="inlineStr">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>airspace</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>27</v>
+      </c>
+      <c r="E271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t>Check</t>
-        </is>
-      </c>
-      <c r="D258" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E258" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F258" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B259" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C259" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D259" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B260" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="D260" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B261" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C261" s="2" t="inlineStr">
-        <is>
-          <t>sure</t>
-        </is>
-      </c>
-      <c r="D261" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B262" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C262" s="2" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="D262" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B263" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C263" s="2" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="D263" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B264" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C264" s="2" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="D264" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>proper</t>
-        </is>
-      </c>
-      <c r="D265" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>authorization</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D267" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>fly</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D269" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B270" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D270" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B271" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C271" s="2" t="inlineStr">
-        <is>
-          <t>airspace</t>
-        </is>
-      </c>
-      <c r="D271" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E271" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem4/42/word_level_predictions_42.xlsx
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,237 +11549,237 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>13</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>13</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>13</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>13</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>11</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>installation</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12722,158 +12722,158 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>15</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>4</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>15</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>5</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>15</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>6</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,1250 +13294,1250 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>16</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>5</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>16</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>6</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>16</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>7</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>16</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>violation</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>8</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>16</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>9</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>16</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>10</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>16</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>laws</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>11</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>16</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>12</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>16</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>regulations</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>13</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>Check</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D249" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D250" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>sure</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>have</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>authorization</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>fly</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
+      <c r="D269" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
-        <is>
-          <t>violation</t>
-        </is>
-      </c>
-      <c r="D252" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L252" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="D253" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>airspace</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E271" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B254" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C254" s="2" t="inlineStr">
-        <is>
-          <t>local</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L254" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B255" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C255" s="2" t="inlineStr">
-        <is>
-          <t>laws</t>
-        </is>
-      </c>
-      <c r="D255" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D256" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B257" s="2" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C257" s="2" t="inlineStr">
-        <is>
-          <t>regulations</t>
-        </is>
-      </c>
-      <c r="D257" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E257" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>16</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Check</t>
-        </is>
-      </c>
-      <c r="D258" t="n">
-        <v>14</v>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>16</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D259" t="n">
-        <v>15</v>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>16</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="D260" t="n">
-        <v>16</v>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>16</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>sure</t>
-        </is>
-      </c>
-      <c r="D261" t="n">
-        <v>17</v>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>16</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="D262" t="n">
-        <v>18</v>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>16</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>19</v>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>16</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>obtained</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>20</v>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>16</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>proper</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>21</v>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>16</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>authorization</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>22</v>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>16</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>23</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>16</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>fly</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>24</v>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>16</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>25</v>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>16</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>26</v>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>16</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>airspace</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>27</v>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
